--- a/examples/Test_Knot_Number/output_bias.correct_TRUE/GOA POP Indices.xlsx
+++ b/examples/Test_Knot_Number/output_bias.correct_TRUE/GOA POP Indices.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curryc2/Documents/NOAA/2017/VAST Evaluation/AFSC_VAST_Evaluation/examples/Test_Knot_Number/output_bias.correct_TRUE/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722119A7-BF02-5941-9616-B041A64D44F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="37740" yWindow="-3600" windowWidth="38400" windowHeight="19680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="plot.list" r:id="rId3" sheetId="1"/>
+    <sheet name="plot.list" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -440,11 +448,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -456,7 +463,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -474,19 +481,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -515,20 +831,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
-        <v>1984.0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>1984</v>
+      </c>
+      <c r="C2">
         <v>645428.1753582838</v>
       </c>
-      <c r="D2" t="n">
-        <v>93798.1310499011</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D2">
+        <v>93798.131049901102</v>
+      </c>
+      <c r="E2">
         <v>0.14532698545091063</v>
       </c>
       <c r="F2" t="s">
@@ -547,20 +863,20 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="n">
-        <v>1987.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>546370.6183257552</v>
-      </c>
-      <c r="D3" t="n">
-        <v>92803.33500312659</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="B3">
+        <v>1987</v>
+      </c>
+      <c r="C3">
+        <v>546370.61832575523</v>
+      </c>
+      <c r="D3">
+        <v>92803.335003126587</v>
+      </c>
+      <c r="E3">
         <v>0.16985418302233027</v>
       </c>
       <c r="F3" t="s">
@@ -579,20 +895,20 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="n">
-        <v>1990.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>629037.8175528137</v>
-      </c>
-      <c r="D4" t="n">
-        <v>96272.67784387754</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="B4">
+        <v>1990</v>
+      </c>
+      <c r="C4">
+        <v>629037.81755281368</v>
+      </c>
+      <c r="D4">
+        <v>96272.677843877536</v>
+      </c>
+      <c r="E4">
         <v>0.15304751981115117</v>
       </c>
       <c r="F4" t="s">
@@ -611,20 +927,20 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="n">
-        <v>1993.0</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5">
+        <v>1993</v>
+      </c>
+      <c r="C5">
         <v>863759.3912778846</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>133297.71118180655</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.1543227344649763</v>
       </c>
       <c r="F5" t="s">
@@ -643,20 +959,20 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="n">
-        <v>1996.0</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6">
+        <v>1996</v>
+      </c>
+      <c r="C6">
         <v>1132057.4523210526</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>169283.76345240962</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.14953637123745606</v>
       </c>
       <c r="F6" t="s">
@@ -675,20 +991,20 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>1999.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>655649.2911126902</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7">
+        <v>1999</v>
+      </c>
+      <c r="C7">
+        <v>655649.29111269023</v>
+      </c>
+      <c r="D7">
         <v>103684.02558683965</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.15813946113001878</v>
       </c>
       <c r="F7" t="s">
@@ -707,21 +1023,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>2001</v>
+      </c>
+      <c r="C8">
         <v>1463414.8386894101</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>329955.8922512292</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.2254698281908414</v>
+      <c r="E8">
+        <v>0.22546982819084141</v>
       </c>
       <c r="F8" t="s">
         <v>129</v>
@@ -739,20 +1055,20 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="n">
-        <v>2003.0</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9">
+        <v>2003</v>
+      </c>
+      <c r="C9">
         <v>1061306.170122511</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>158915.48314417794</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.14973575733177322</v>
       </c>
       <c r="F9" t="s">
@@ -771,20 +1087,20 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="n">
-        <v>2005.0</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>2005</v>
+      </c>
+      <c r="C10">
         <v>1575469.0913350058</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>219347.90002845475</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.13922704116180779</v>
       </c>
       <c r="F10" t="s">
@@ -803,20 +1119,20 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="n">
-        <v>2007.0</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11">
+        <v>2007</v>
+      </c>
+      <c r="C11">
         <v>1598473.8436449957</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>246762.83431483502</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.15437402075478593</v>
       </c>
       <c r="F11" t="s">
@@ -835,21 +1151,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="n">
-        <v>2009.0</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12">
+        <v>2009</v>
+      </c>
+      <c r="C12">
         <v>1415667.2789299283</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>195307.32980078002</v>
       </c>
-      <c r="E12" t="n">
-        <v>0.1379613223443354</v>
+      <c r="E12">
+        <v>0.13796132234433539</v>
       </c>
       <c r="F12" t="s">
         <v>129</v>
@@ -867,20 +1183,20 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="n">
-        <v>2011.0</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13">
+        <v>2011</v>
+      </c>
+      <c r="C13">
         <v>1870499.9627961975</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>284273.5179183177</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>0.15197729140467833</v>
       </c>
       <c r="F13" t="s">
@@ -899,20 +1215,20 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
         <v>3100999.0713681146</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>520085.54261554184</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>0.16771547834939785</v>
       </c>
       <c r="F14" t="s">
@@ -931,21 +1247,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15">
+        <v>2015</v>
+      </c>
+      <c r="C15">
         <v>3721940.014499567</v>
       </c>
-      <c r="D15" t="n">
-        <v>554597.6037460266</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.1490076684700667</v>
+      <c r="D15">
+        <v>554597.60374602664</v>
+      </c>
+      <c r="E15">
+        <v>0.14900766847006669</v>
       </c>
       <c r="F15" t="s">
         <v>129</v>
@@ -963,20 +1279,20 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>4653272.928451267</v>
-      </c>
-      <c r="D16" t="n">
-        <v>737550.4487121219</v>
-      </c>
-      <c r="E16" t="n">
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16">
+        <v>4653272.9284512671</v>
+      </c>
+      <c r="D16">
+        <v>737550.44871212193</v>
+      </c>
+      <c r="E16">
         <v>0.15850143760159763</v>
       </c>
       <c r="F16" t="s">
@@ -995,20 +1311,20 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="n">
-        <v>1984.0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>522116.2547831061</v>
-      </c>
-      <c r="D17" t="n">
-        <v>72949.36666874221</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="B17">
+        <v>1984</v>
+      </c>
+      <c r="C17">
+        <v>522116.25478310609</v>
+      </c>
+      <c r="D17">
+        <v>72949.366668742208</v>
+      </c>
+      <c r="E17">
         <v>0.13971862779688085</v>
       </c>
       <c r="F17" t="s">
@@ -1027,20 +1343,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" t="n">
-        <v>1987.0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>484798.8130514181</v>
-      </c>
-      <c r="D18" t="n">
-        <v>80288.11942087139</v>
-      </c>
-      <c r="E18" t="n">
+      <c r="B18">
+        <v>1987</v>
+      </c>
+      <c r="C18">
+        <v>484798.81305141811</v>
+      </c>
+      <c r="D18">
+        <v>80288.119420871386</v>
+      </c>
+      <c r="E18">
         <v>0.16561121285657102</v>
       </c>
       <c r="F18" t="s">
@@ -1059,20 +1375,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="n">
-        <v>1990.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>541494.8216415597</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80538.12659613206</v>
-      </c>
-      <c r="E19" t="n">
+      <c r="B19">
+        <v>1990</v>
+      </c>
+      <c r="C19">
+        <v>541494.82164155971</v>
+      </c>
+      <c r="D19">
+        <v>80538.126596132061</v>
+      </c>
+      <c r="E19">
         <v>0.1487329580585425</v>
       </c>
       <c r="F19" t="s">
@@ -1091,20 +1407,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="n">
-        <v>1993.0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>797183.9389516902</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="B20">
+        <v>1993</v>
+      </c>
+      <c r="C20">
+        <v>797183.93895169022</v>
+      </c>
+      <c r="D20">
         <v>119095.56907218928</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.14939534435277493</v>
       </c>
       <c r="F20" t="s">
@@ -1123,20 +1439,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
-        <v>1996.0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>996382.110379465</v>
-      </c>
-      <c r="D21" t="n">
+      <c r="B21">
+        <v>1996</v>
+      </c>
+      <c r="C21">
+        <v>996382.11037946504</v>
+      </c>
+      <c r="D21">
         <v>146558.36628876798</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.14709052356726102</v>
       </c>
       <c r="F21" t="s">
@@ -1155,21 +1471,21 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="n">
-        <v>1999.0</v>
-      </c>
-      <c r="C22" t="n">
-        <v>621177.6290761316</v>
-      </c>
-      <c r="D22" t="n">
-        <v>95769.51576755146</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.1541741223198718</v>
+      <c r="B22">
+        <v>1999</v>
+      </c>
+      <c r="C22">
+        <v>621177.62907613162</v>
+      </c>
+      <c r="D22">
+        <v>95769.515767551464</v>
+      </c>
+      <c r="E22">
+        <v>0.15417412231987179</v>
       </c>
       <c r="F22" t="s">
         <v>129</v>
@@ -1187,20 +1503,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23">
+        <v>2001</v>
+      </c>
+      <c r="C23">
         <v>1250229.6313856773</v>
       </c>
-      <c r="D23" t="n">
-        <v>273891.5436913698</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>273891.54369136982</v>
+      </c>
+      <c r="E23">
         <v>0.21907299012566625</v>
       </c>
       <c r="F23" t="s">
@@ -1219,20 +1535,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="n">
-        <v>2003.0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>988128.7663503643</v>
-      </c>
-      <c r="D24" t="n">
+      <c r="B24">
+        <v>2003</v>
+      </c>
+      <c r="C24">
+        <v>988128.76635036431</v>
+      </c>
+      <c r="D24">
         <v>143539.30765021325</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.1452637677783363</v>
       </c>
       <c r="F24" t="s">
@@ -1251,20 +1567,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="n">
-        <v>2005.0</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25">
+        <v>2005</v>
+      </c>
+      <c r="C25">
         <v>1499808.8097713315</v>
       </c>
-      <c r="D25" t="n">
-        <v>200861.2885345452</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="D25">
+        <v>200861.28853454519</v>
+      </c>
+      <c r="E25">
         <v>0.13392459573908594</v>
       </c>
       <c r="F25" t="s">
@@ -1283,20 +1599,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" t="n">
-        <v>2007.0</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26">
+        <v>2007</v>
+      </c>
+      <c r="C26">
         <v>1456266.9391472007</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>217120.42625714082</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>0.14909383741437401</v>
       </c>
       <c r="F26" t="s">
@@ -1315,21 +1631,21 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
-      <c r="B27" t="n">
-        <v>2009.0</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27">
+        <v>2009</v>
+      </c>
+      <c r="C27">
         <v>1310653.7237418813</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>174106.61567270284</v>
       </c>
-      <c r="E27" t="n">
-        <v>0.1328395231469935</v>
+      <c r="E27">
+        <v>0.13283952314699349</v>
       </c>
       <c r="F27" t="s">
         <v>129</v>
@@ -1347,21 +1663,21 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="n">
-        <v>2011.0</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28">
+        <v>2011</v>
+      </c>
+      <c r="C28">
         <v>1661287.1439185077</v>
       </c>
-      <c r="D28" t="n">
-        <v>242230.6471582758</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.1458090180526661</v>
+      <c r="D28">
+        <v>242230.64715827579</v>
+      </c>
+      <c r="E28">
+        <v>0.14580901805266611</v>
       </c>
       <c r="F28" t="s">
         <v>129</v>
@@ -1379,20 +1695,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
-      <c r="B29" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2750382.266319157</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="B29">
+        <v>2013</v>
+      </c>
+      <c r="C29">
+        <v>2750382.2663191571</v>
+      </c>
+      <c r="D29">
         <v>435712.72488943307</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>0.15841896969200153</v>
       </c>
       <c r="F29" t="s">
@@ -1411,20 +1727,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
-      <c r="B30" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30">
+        <v>2015</v>
+      </c>
+      <c r="C30">
         <v>3217776.9238215396</v>
       </c>
-      <c r="D30" t="n">
-        <v>455342.4747163862</v>
-      </c>
-      <c r="E30" t="n">
+      <c r="D30">
+        <v>455342.47471638618</v>
+      </c>
+      <c r="E30">
         <v>0.14150840331579176</v>
       </c>
       <c r="F30" t="s">
@@ -1443,20 +1759,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>4339915.695296375</v>
-      </c>
-      <c r="D31" t="n">
-        <v>666264.9521034777</v>
-      </c>
-      <c r="E31" t="n">
+      <c r="B31">
+        <v>2017</v>
+      </c>
+      <c r="C31">
+        <v>4339915.6952963751</v>
+      </c>
+      <c r="D31">
+        <v>666264.95210347767</v>
+      </c>
+      <c r="E31">
         <v>0.15352025220802776</v>
       </c>
       <c r="F31" t="s">
@@ -1475,20 +1791,20 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B32" t="n">
-        <v>1984.0</v>
-      </c>
-      <c r="C32" t="n">
-        <v>500088.939934298</v>
-      </c>
-      <c r="D32" t="n">
-        <v>68850.24337429638</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="B32">
+        <v>1984</v>
+      </c>
+      <c r="C32">
+        <v>500088.93993429799</v>
+      </c>
+      <c r="D32">
+        <v>68850.243374296377</v>
+      </c>
+      <c r="E32">
         <v>0.13767599696034463</v>
       </c>
       <c r="F32" t="s">
@@ -1507,20 +1823,20 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
-      <c r="B33" t="n">
-        <v>1987.0</v>
-      </c>
-      <c r="C33" t="n">
-        <v>450370.0496781919</v>
-      </c>
-      <c r="D33" t="n">
-        <v>72232.70835977301</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="B33">
+        <v>1987</v>
+      </c>
+      <c r="C33">
+        <v>450370.04967819189</v>
+      </c>
+      <c r="D33">
+        <v>72232.708359773009</v>
+      </c>
+      <c r="E33">
         <v>0.16038523967432178</v>
       </c>
       <c r="F33" t="s">
@@ -1539,20 +1855,20 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="n">
-        <v>1990.0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>500421.6156211171</v>
-      </c>
-      <c r="D34" t="n">
-        <v>72806.9904963677</v>
-      </c>
-      <c r="E34" t="n">
+      <c r="B34">
+        <v>1990</v>
+      </c>
+      <c r="C34">
+        <v>500421.61562111712</v>
+      </c>
+      <c r="D34">
+        <v>72806.990496367696</v>
+      </c>
+      <c r="E34">
         <v>0.14549129818463288</v>
       </c>
       <c r="F34" t="s">
@@ -1571,20 +1887,20 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="n">
-        <v>1993.0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>701764.64903412</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="B35">
+        <v>1993</v>
+      </c>
+      <c r="C35">
+        <v>701764.64903412003</v>
+      </c>
+      <c r="D35">
         <v>103144.71077089348</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>0.14697906329829752</v>
       </c>
       <c r="F35" t="s">
@@ -1603,20 +1919,20 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
-      <c r="B36" t="n">
-        <v>1996.0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>911361.3078608756</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="B36">
+        <v>1996</v>
+      </c>
+      <c r="C36">
+        <v>911361.30786087562</v>
+      </c>
+      <c r="D36">
         <v>130432.51903978134</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>0.14311834166619306</v>
       </c>
       <c r="F36" t="s">
@@ -1635,20 +1951,20 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="B37" t="n">
-        <v>1999.0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>574656.1813980511</v>
-      </c>
-      <c r="D37" t="n">
-        <v>86400.20534761858</v>
-      </c>
-      <c r="E37" t="n">
+      <c r="B37">
+        <v>1999</v>
+      </c>
+      <c r="C37">
+        <v>574656.18139805109</v>
+      </c>
+      <c r="D37">
+        <v>86400.205347618583</v>
+      </c>
+      <c r="E37">
         <v>0.15035112845635806</v>
       </c>
       <c r="F37" t="s">
@@ -1667,21 +1983,21 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>45</v>
       </c>
-      <c r="B38" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38">
+        <v>2001</v>
+      </c>
+      <c r="C38">
         <v>1111450.510505812</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>234332.59638109364</v>
       </c>
-      <c r="E38" t="n">
-        <v>0.2108349352185288</v>
+      <c r="E38">
+        <v>0.21083493521852881</v>
       </c>
       <c r="F38" t="s">
         <v>129</v>
@@ -1699,20 +2015,20 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="B39" t="n">
-        <v>2003.0</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39">
+        <v>2003</v>
+      </c>
+      <c r="C39">
         <v>1000774.1980415893</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>143299.57324553278</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>0.14318871682139198</v>
       </c>
       <c r="F39" t="s">
@@ -1731,20 +2047,20 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B40" t="n">
-        <v>2005.0</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40">
+        <v>2005</v>
+      </c>
+      <c r="C40">
         <v>1412590.3558328876</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>183890.51084528348</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>0.13017964485313116</v>
       </c>
       <c r="F40" t="s">
@@ -1763,20 +2079,20 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
-      <c r="B41" t="n">
-        <v>2007.0</v>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41">
+        <v>2007</v>
+      </c>
+      <c r="C41">
         <v>1420301.6517713384</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>203605.25267470113</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>0.14335352804861806</v>
       </c>
       <c r="F41" t="s">
@@ -1795,20 +2111,20 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B42" t="n">
-        <v>2009.0</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42">
+        <v>2009</v>
+      </c>
+      <c r="C42">
         <v>1275582.7560867297</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>166595.61714975486</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>0.13060353501551072</v>
       </c>
       <c r="F42" t="s">
@@ -1827,20 +2143,20 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
-      <c r="B43" t="n">
-        <v>2011.0</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43">
+        <v>2011</v>
+      </c>
+      <c r="C43">
         <v>1653939.3125525468</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>233641.47496705523</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>0.14126363234360345</v>
       </c>
       <c r="F43" t="s">
@@ -1859,20 +2175,20 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="B44" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44">
+        <v>2013</v>
+      </c>
+      <c r="C44">
         <v>2688840.708243588</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>421412.30010031385</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>0.15672639097151647</v>
       </c>
       <c r="F44" t="s">
@@ -1891,20 +2207,20 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
-      <c r="B45" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45">
+        <v>2015</v>
+      </c>
+      <c r="C45">
         <v>3193661.109550647</v>
       </c>
-      <c r="D45" t="n">
-        <v>444486.6022122551</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>444486.60221225512</v>
+      </c>
+      <c r="E45">
         <v>0.13917776087231593</v>
       </c>
       <c r="F45" t="s">
@@ -1923,21 +2239,21 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
-      <c r="B46" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3987235.861849978</v>
-      </c>
-      <c r="D46" t="n">
-        <v>596062.9388639256</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.1494927713123465</v>
+      <c r="B46">
+        <v>2017</v>
+      </c>
+      <c r="C46">
+        <v>3987235.8618499781</v>
+      </c>
+      <c r="D46">
+        <v>596062.93886392564</v>
+      </c>
+      <c r="E46">
+        <v>0.14949277131234651</v>
       </c>
       <c r="F46" t="s">
         <v>129</v>
@@ -1955,20 +2271,20 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>54</v>
       </c>
-      <c r="B47" t="n">
-        <v>1984.0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>436106.6351288077</v>
-      </c>
-      <c r="D47" t="n">
+      <c r="B47">
+        <v>1984</v>
+      </c>
+      <c r="C47">
+        <v>436106.63512880768</v>
+      </c>
+      <c r="D47">
         <v>58480.57206002625</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>0.13409695553646767</v>
       </c>
       <c r="F47" t="s">
@@ -1987,20 +2303,20 @@
         <v>137</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>55</v>
       </c>
-      <c r="B48" t="n">
-        <v>1987.0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>467530.2770600613</v>
-      </c>
-      <c r="D48" t="n">
-        <v>76436.62393713139</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="B48">
+        <v>1987</v>
+      </c>
+      <c r="C48">
+        <v>467530.27706006129</v>
+      </c>
+      <c r="D48">
+        <v>76436.623937131386</v>
+      </c>
+      <c r="E48">
         <v>0.16349021162390293</v>
       </c>
       <c r="F48" t="s">
@@ -2019,20 +2335,20 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="B49" t="n">
-        <v>1990.0</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49">
+        <v>1990</v>
+      </c>
+      <c r="C49">
         <v>464017.2395754804</v>
       </c>
-      <c r="D49" t="n">
-        <v>65654.38240580306</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="D49">
+        <v>65654.382405803059</v>
+      </c>
+      <c r="E49">
         <v>0.14149125680302066</v>
       </c>
       <c r="F49" t="s">
@@ -2051,21 +2367,21 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
-      <c r="B50" t="n">
-        <v>1993.0</v>
-      </c>
-      <c r="C50" t="n">
+      <c r="B50">
+        <v>1993</v>
+      </c>
+      <c r="C50">
         <v>657513.7970351039</v>
       </c>
-      <c r="D50" t="n">
-        <v>94374.33942971299</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.1435321051136429</v>
+      <c r="D50">
+        <v>94374.339429712985</v>
+      </c>
+      <c r="E50">
+        <v>0.14353210511364289</v>
       </c>
       <c r="F50" t="s">
         <v>129</v>
@@ -2083,20 +2399,20 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
-      <c r="B51" t="n">
-        <v>1996.0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>905153.954940682</v>
-      </c>
-      <c r="D51" t="n">
+      <c r="B51">
+        <v>1996</v>
+      </c>
+      <c r="C51">
+        <v>905153.95494068204</v>
+      </c>
+      <c r="D51">
         <v>127003.73649306595</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>0.14031175116656144</v>
       </c>
       <c r="F51" t="s">
@@ -2115,21 +2431,21 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
-      <c r="B52" t="n">
-        <v>1999.0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>578500.9243958793</v>
-      </c>
-      <c r="D52" t="n">
-        <v>86391.84013865641</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.149337427989202</v>
+      <c r="B52">
+        <v>1999</v>
+      </c>
+      <c r="C52">
+        <v>578500.92439587926</v>
+      </c>
+      <c r="D52">
+        <v>86391.840138656407</v>
+      </c>
+      <c r="E52">
+        <v>0.14933742798920199</v>
       </c>
       <c r="F52" t="s">
         <v>129</v>
@@ -2147,20 +2463,20 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
-      <c r="B53" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="C53" t="n">
+      <c r="B53">
+        <v>2001</v>
+      </c>
+      <c r="C53">
         <v>1138189.1199899723</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>241915.19186686163</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>0.21254393282989117</v>
       </c>
       <c r="F53" t="s">
@@ -2179,20 +2495,20 @@
         <v>137</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="B54" t="n">
-        <v>2003.0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>954407.0557417072</v>
-      </c>
-      <c r="D54" t="n">
+      <c r="B54">
+        <v>2003</v>
+      </c>
+      <c r="C54">
+        <v>954407.05574170721</v>
+      </c>
+      <c r="D54">
         <v>133478.91811695907</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>0.13985533459120056</v>
       </c>
       <c r="F54" t="s">
@@ -2211,20 +2527,20 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>62</v>
       </c>
-      <c r="B55" t="n">
-        <v>2005.0</v>
-      </c>
-      <c r="C55" t="n">
+      <c r="B55">
+        <v>2005</v>
+      </c>
+      <c r="C55">
         <v>1357661.5310865499</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>173936.30361751487</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>0.12811462918766797</v>
       </c>
       <c r="F55" t="s">
@@ -2243,21 +2559,21 @@
         <v>137</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="B56" t="n">
-        <v>2007.0</v>
-      </c>
-      <c r="C56" t="n">
+      <c r="B56">
+        <v>2007</v>
+      </c>
+      <c r="C56">
         <v>1311201.5818943104</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>188220.85404528835</v>
       </c>
-      <c r="E56" t="n">
-        <v>0.1435483732206631</v>
+      <c r="E56">
+        <v>0.14354837322066311</v>
       </c>
       <c r="F56" t="s">
         <v>129</v>
@@ -2275,20 +2591,20 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>64</v>
       </c>
-      <c r="B57" t="n">
-        <v>2009.0</v>
-      </c>
-      <c r="C57" t="n">
+      <c r="B57">
+        <v>2009</v>
+      </c>
+      <c r="C57">
         <v>1285348.1141943927</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>165231.25380971035</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>0.12854980840211605</v>
       </c>
       <c r="F57" t="s">
@@ -2307,20 +2623,20 @@
         <v>137</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
-      <c r="B58" t="n">
-        <v>2011.0</v>
-      </c>
-      <c r="C58" t="n">
+      <c r="B58">
+        <v>2011</v>
+      </c>
+      <c r="C58">
         <v>1698155.6279426345</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>237650.81680524617</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>0.13994642946428126</v>
       </c>
       <c r="F58" t="s">
@@ -2339,20 +2655,20 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>66</v>
       </c>
-      <c r="B59" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="C59" t="n">
+      <c r="B59">
+        <v>2013</v>
+      </c>
+      <c r="C59">
         <v>2648300.5549577395</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>409689.85651297105</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>0.15469915442415058</v>
       </c>
       <c r="F59" t="s">
@@ -2371,21 +2687,21 @@
         <v>137</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>67</v>
       </c>
-      <c r="B60" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2948185.753018753</v>
-      </c>
-      <c r="D60" t="n">
+      <c r="B60">
+        <v>2015</v>
+      </c>
+      <c r="C60">
+        <v>2948185.7530187531</v>
+      </c>
+      <c r="D60">
         <v>405103.36603046104</v>
       </c>
-      <c r="E60" t="n">
-        <v>0.1374076805084826</v>
+      <c r="E60">
+        <v>0.13740768050848259</v>
       </c>
       <c r="F60" t="s">
         <v>129</v>
@@ -2403,21 +2719,21 @@
         <v>137</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>68</v>
       </c>
-      <c r="B61" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="C61" t="n">
+      <c r="B61">
+        <v>2017</v>
+      </c>
+      <c r="C61">
         <v>3845071.4060040643</v>
       </c>
-      <c r="D61" t="n">
-        <v>567566.2041340324</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.1476087552620687</v>
+      <c r="D61">
+        <v>567566.20413403236</v>
+      </c>
+      <c r="E61">
+        <v>0.14760875526206871</v>
       </c>
       <c r="F61" t="s">
         <v>129</v>
@@ -2435,20 +2751,20 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>69</v>
       </c>
-      <c r="B62" t="n">
-        <v>1984.0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>420585.8462987058</v>
-      </c>
-      <c r="D62" t="n">
-        <v>56670.99760765451</v>
-      </c>
-      <c r="E62" t="n">
+      <c r="B62">
+        <v>1984</v>
+      </c>
+      <c r="C62">
+        <v>420585.84629870579</v>
+      </c>
+      <c r="D62">
+        <v>56670.997607654514</v>
+      </c>
+      <c r="E62">
         <v>0.13474299743174428</v>
       </c>
       <c r="F62" t="s">
@@ -2467,20 +2783,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>70</v>
       </c>
-      <c r="B63" t="n">
-        <v>1987.0</v>
-      </c>
-      <c r="C63" t="n">
+      <c r="B63">
+        <v>1987</v>
+      </c>
+      <c r="C63">
         <v>454686.62493097375</v>
       </c>
-      <c r="D63" t="n">
-        <v>73233.24418457334</v>
-      </c>
-      <c r="E63" t="n">
+      <c r="D63">
+        <v>73233.244184573341</v>
+      </c>
+      <c r="E63">
         <v>0.16106311505356227</v>
       </c>
       <c r="F63" t="s">
@@ -2499,20 +2815,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>71</v>
       </c>
-      <c r="B64" t="n">
-        <v>1990.0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>439217.7248486613</v>
-      </c>
-      <c r="D64" t="n">
+      <c r="B64">
+        <v>1990</v>
+      </c>
+      <c r="C64">
+        <v>439217.72484866128</v>
+      </c>
+      <c r="D64">
         <v>61362.32611377928</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>0.1397082190499542</v>
       </c>
       <c r="F64" t="s">
@@ -2531,20 +2847,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>72</v>
       </c>
-      <c r="B65" t="n">
-        <v>1993.0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>646043.2167509969</v>
-      </c>
-      <c r="D65" t="n">
-        <v>91370.69841318447</v>
-      </c>
-      <c r="E65" t="n">
+      <c r="B65">
+        <v>1993</v>
+      </c>
+      <c r="C65">
+        <v>646043.21675099689</v>
+      </c>
+      <c r="D65">
+        <v>91370.698413184466</v>
+      </c>
+      <c r="E65">
         <v>0.1414312480095295</v>
       </c>
       <c r="F65" t="s">
@@ -2563,20 +2879,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>73</v>
       </c>
-      <c r="B66" t="n">
-        <v>1996.0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>888033.248469961</v>
-      </c>
-      <c r="D66" t="n">
+      <c r="B66">
+        <v>1996</v>
+      </c>
+      <c r="C66">
+        <v>888033.24846996099</v>
+      </c>
+      <c r="D66">
         <v>126766.49303638154</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>0.14274971489501567</v>
       </c>
       <c r="F66" t="s">
@@ -2595,20 +2911,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>74</v>
       </c>
-      <c r="B67" t="n">
-        <v>1999.0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>589141.468572064</v>
-      </c>
-      <c r="D67" t="n">
-        <v>90324.70943573181</v>
-      </c>
-      <c r="E67" t="n">
+      <c r="B67">
+        <v>1999</v>
+      </c>
+      <c r="C67">
+        <v>589141.46857206395</v>
+      </c>
+      <c r="D67">
+        <v>90324.709435731813</v>
+      </c>
+      <c r="E67">
         <v>0.15331582354006926</v>
       </c>
       <c r="F67" t="s">
@@ -2627,20 +2943,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>75</v>
       </c>
-      <c r="B68" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="C68" t="n">
+      <c r="B68">
+        <v>2001</v>
+      </c>
+      <c r="C68">
         <v>1183863.7040059587</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>253830.85094996158</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>0.21440884629797213</v>
       </c>
       <c r="F68" t="s">
@@ -2659,20 +2975,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>76</v>
       </c>
-      <c r="B69" t="n">
-        <v>2003.0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>975238.9275902648</v>
-      </c>
-      <c r="D69" t="n">
+      <c r="B69">
+        <v>2003</v>
+      </c>
+      <c r="C69">
+        <v>975238.92759026482</v>
+      </c>
+      <c r="D69">
         <v>139241.76498100336</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>0.14277707856172056</v>
       </c>
       <c r="F69" t="s">
@@ -2691,20 +3007,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>77</v>
       </c>
-      <c r="B70" t="n">
-        <v>2005.0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1413399.879564131</v>
-      </c>
-      <c r="D70" t="n">
+      <c r="B70">
+        <v>2005</v>
+      </c>
+      <c r="C70">
+        <v>1413399.8795641309</v>
+      </c>
+      <c r="D70">
         <v>181853.59650751908</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>0.12866393943913432</v>
       </c>
       <c r="F70" t="s">
@@ -2723,20 +3039,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>78</v>
       </c>
-      <c r="B71" t="n">
-        <v>2007.0</v>
-      </c>
-      <c r="C71" t="n">
+      <c r="B71">
+        <v>2007</v>
+      </c>
+      <c r="C71">
         <v>1315422.4532908113</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>185688.07208359946</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>0.14116230996290274</v>
       </c>
       <c r="F71" t="s">
@@ -2755,20 +3071,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>79</v>
       </c>
-      <c r="B72" t="n">
-        <v>2009.0</v>
-      </c>
-      <c r="C72" t="n">
+      <c r="B72">
+        <v>2009</v>
+      </c>
+      <c r="C72">
         <v>1275347.9545385346</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>162742.51386242575</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>0.1276063628622133</v>
       </c>
       <c r="F72" t="s">
@@ -2787,20 +3103,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>80</v>
       </c>
-      <c r="B73" t="n">
-        <v>2011.0</v>
-      </c>
-      <c r="C73" t="n">
+      <c r="B73">
+        <v>2011</v>
+      </c>
+      <c r="C73">
         <v>1728382.682609183</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>241184.20795779987</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>0.13954329118462694</v>
       </c>
       <c r="F73" t="s">
@@ -2819,21 +3135,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>81</v>
       </c>
-      <c r="B74" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>2555757.403737752</v>
-      </c>
-      <c r="D74" t="n">
-        <v>387030.5624895862</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.1514347809082194</v>
+      <c r="B74">
+        <v>2013</v>
+      </c>
+      <c r="C74">
+        <v>2555757.4037377522</v>
+      </c>
+      <c r="D74">
+        <v>387030.56248958618</v>
+      </c>
+      <c r="E74">
+        <v>0.15143478090821941</v>
       </c>
       <c r="F74" t="s">
         <v>129</v>
@@ -2851,20 +3167,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>82</v>
       </c>
-      <c r="B75" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>2947136.05860882</v>
-      </c>
-      <c r="D75" t="n">
-        <v>402783.8112337953</v>
-      </c>
-      <c r="E75" t="n">
+      <c r="B75">
+        <v>2015</v>
+      </c>
+      <c r="C75">
+        <v>2947136.0586088202</v>
+      </c>
+      <c r="D75">
+        <v>402783.81123379531</v>
+      </c>
+      <c r="E75">
         <v>0.13666956775111605</v>
       </c>
       <c r="F75" t="s">
@@ -2883,21 +3199,21 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>83</v>
       </c>
-      <c r="B76" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="C76" t="n">
+      <c r="B76">
+        <v>2017</v>
+      </c>
+      <c r="C76">
         <v>3635942.8505656607</v>
       </c>
-      <c r="D76" t="n">
-        <v>532214.0696493475</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.1463758071902996</v>
+      <c r="D76">
+        <v>532214.06964934745</v>
+      </c>
+      <c r="E76">
+        <v>0.14637580719029961</v>
       </c>
       <c r="F76" t="s">
         <v>129</v>
@@ -2915,20 +3231,20 @@
         <v>138</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>84</v>
       </c>
-      <c r="B77" t="n">
-        <v>1984.0</v>
-      </c>
-      <c r="C77" t="n">
+      <c r="B77">
+        <v>1984</v>
+      </c>
+      <c r="C77">
         <v>413591.13723566406</v>
       </c>
-      <c r="D77" t="n">
-        <v>54208.00732646763</v>
-      </c>
-      <c r="E77" t="n">
+      <c r="D77">
+        <v>54208.007326467632</v>
+      </c>
+      <c r="E77">
         <v>0.13106665604292175</v>
       </c>
       <c r="F77" t="s">
@@ -2947,21 +3263,21 @@
         <v>139</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>85</v>
       </c>
-      <c r="B78" t="n">
-        <v>1987.0</v>
-      </c>
-      <c r="C78" t="n">
-        <v>431329.4080059329</v>
-      </c>
-      <c r="D78" t="n">
+      <c r="B78">
+        <v>1987</v>
+      </c>
+      <c r="C78">
+        <v>431329.40800593293</v>
+      </c>
+      <c r="D78">
         <v>66643.82079523649</v>
       </c>
-      <c r="E78" t="n">
-        <v>0.1545079458025728</v>
+      <c r="E78">
+        <v>0.15450794580257279</v>
       </c>
       <c r="F78" t="s">
         <v>129</v>
@@ -2979,21 +3295,21 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>86</v>
       </c>
-      <c r="B79" t="n">
-        <v>1990.0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>396423.0195403483</v>
-      </c>
-      <c r="D79" t="n">
+      <c r="B79">
+        <v>1990</v>
+      </c>
+      <c r="C79">
+        <v>396423.01954034832</v>
+      </c>
+      <c r="D79">
         <v>53114.225061689125</v>
       </c>
-      <c r="E79" t="n">
-        <v>0.1339837053944924</v>
+      <c r="E79">
+        <v>0.13398370539449239</v>
       </c>
       <c r="F79" t="s">
         <v>129</v>
@@ -3011,21 +3327,21 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>87</v>
       </c>
-      <c r="B80" t="n">
-        <v>1993.0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>584032.9774230409</v>
-      </c>
-      <c r="D80" t="n">
-        <v>79503.97175942436</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.1361292509717925</v>
+      <c r="B80">
+        <v>1993</v>
+      </c>
+      <c r="C80">
+        <v>584032.97742304089</v>
+      </c>
+      <c r="D80">
+        <v>79503.971759424356</v>
+      </c>
+      <c r="E80">
+        <v>0.13612925097179249</v>
       </c>
       <c r="F80" t="s">
         <v>129</v>
@@ -3043,20 +3359,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>88</v>
       </c>
-      <c r="B81" t="n">
-        <v>1996.0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>831913.6285286599</v>
-      </c>
-      <c r="D81" t="n">
+      <c r="B81">
+        <v>1996</v>
+      </c>
+      <c r="C81">
+        <v>831913.62852865993</v>
+      </c>
+      <c r="D81">
         <v>112217.97302168063</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>0.13489137474541885</v>
       </c>
       <c r="F81" t="s">
@@ -3075,20 +3391,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>89</v>
       </c>
-      <c r="B82" t="n">
-        <v>1999.0</v>
-      </c>
-      <c r="C82" t="n">
-        <v>586285.4406243183</v>
-      </c>
-      <c r="D82" t="n">
-        <v>84835.79312147712</v>
-      </c>
-      <c r="E82" t="n">
+      <c r="B82">
+        <v>1999</v>
+      </c>
+      <c r="C82">
+        <v>586285.44062431832</v>
+      </c>
+      <c r="D82">
+        <v>84835.793121477123</v>
+      </c>
+      <c r="E82">
         <v>0.14470049440616836</v>
       </c>
       <c r="F82" t="s">
@@ -3107,20 +3423,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>90</v>
       </c>
-      <c r="B83" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="C83" t="n">
+      <c r="B83">
+        <v>2001</v>
+      </c>
+      <c r="C83">
         <v>1213484.9394949204</v>
       </c>
-      <c r="D83" t="n">
-        <v>250208.8369893446</v>
-      </c>
-      <c r="E83" t="n">
+      <c r="D83">
+        <v>250208.83698934459</v>
+      </c>
+      <c r="E83">
         <v>0.20619031093495657</v>
       </c>
       <c r="F83" t="s">
@@ -3139,20 +3455,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>91</v>
       </c>
-      <c r="B84" t="n">
-        <v>2003.0</v>
-      </c>
-      <c r="C84" t="n">
-        <v>883335.978982077</v>
-      </c>
-      <c r="D84" t="n">
+      <c r="B84">
+        <v>2003</v>
+      </c>
+      <c r="C84">
+        <v>883335.97898207698</v>
+      </c>
+      <c r="D84">
         <v>120578.29991617794</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>0.13650332691659162</v>
       </c>
       <c r="F84" t="s">
@@ -3171,21 +3487,21 @@
         <v>139</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>92</v>
       </c>
-      <c r="B85" t="n">
-        <v>2005.0</v>
-      </c>
-      <c r="C85" t="n">
+      <c r="B85">
+        <v>2005</v>
+      </c>
+      <c r="C85">
         <v>1299641.2912178296</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>160605.76265997207</v>
       </c>
-      <c r="E85" t="n">
-        <v>0.1235769929327779</v>
+      <c r="E85">
+        <v>0.12357699293277789</v>
       </c>
       <c r="F85" t="s">
         <v>129</v>
@@ -3203,20 +3519,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>93</v>
       </c>
-      <c r="B86" t="n">
-        <v>2007.0</v>
-      </c>
-      <c r="C86" t="n">
+      <c r="B86">
+        <v>2007</v>
+      </c>
+      <c r="C86">
         <v>1295971.5089292135</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>177783.07469177444</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>0.13718131414684134</v>
       </c>
       <c r="F86" t="s">
@@ -3235,20 +3551,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>94</v>
       </c>
-      <c r="B87" t="n">
-        <v>2009.0</v>
-      </c>
-      <c r="C87" t="n">
+      <c r="B87">
+        <v>2009</v>
+      </c>
+      <c r="C87">
         <v>1233001.7158350826</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>150966.91833841417</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>0.12243853061969819</v>
       </c>
       <c r="F87" t="s">
@@ -3267,20 +3583,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>95</v>
       </c>
-      <c r="B88" t="n">
-        <v>2011.0</v>
-      </c>
-      <c r="C88" t="n">
+      <c r="B88">
+        <v>2011</v>
+      </c>
+      <c r="C88">
         <v>1600023.3313173156</v>
       </c>
-      <c r="D88" t="n">
-        <v>213157.1018811358</v>
-      </c>
-      <c r="E88" t="n">
+      <c r="D88">
+        <v>213157.10188113581</v>
+      </c>
+      <c r="E88">
         <v>0.13322124603373214</v>
       </c>
       <c r="F88" t="s">
@@ -3299,20 +3615,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>96</v>
       </c>
-      <c r="B89" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="C89" t="n">
+      <c r="B89">
+        <v>2013</v>
+      </c>
+      <c r="C89">
         <v>2477669.2810354102</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>367490.55575560324</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>0.14832106874329495</v>
       </c>
       <c r="F89" t="s">
@@ -3331,20 +3647,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>97</v>
       </c>
-      <c r="B90" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2923806.935733216</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="B90">
+        <v>2015</v>
+      </c>
+      <c r="C90">
+        <v>2923806.9357332159</v>
+      </c>
+      <c r="D90">
         <v>389409.1262251478</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>0.13318564966311427</v>
       </c>
       <c r="F90" t="s">
@@ -3363,20 +3679,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>98</v>
       </c>
-      <c r="B91" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="C91" t="n">
-        <v>3544392.971273807</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="B91">
+        <v>2017</v>
+      </c>
+      <c r="C91">
+        <v>3544392.9712738069</v>
+      </c>
+      <c r="D91">
         <v>497038.1213246329</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>0.14023222745134947</v>
       </c>
       <c r="F91" t="s">
@@ -3395,20 +3711,20 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>99</v>
       </c>
-      <c r="B92" t="n">
-        <v>1984.0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>398045.4566227585</v>
-      </c>
-      <c r="D92" t="n">
-        <v>50324.93829155472</v>
-      </c>
-      <c r="E92" t="n">
+      <c r="B92">
+        <v>1984</v>
+      </c>
+      <c r="C92">
+        <v>398045.45662275847</v>
+      </c>
+      <c r="D92">
+        <v>50324.938291554718</v>
+      </c>
+      <c r="E92">
         <v>0.12643012865550532</v>
       </c>
       <c r="F92" t="s">
@@ -3427,20 +3743,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>100</v>
       </c>
-      <c r="B93" t="n">
-        <v>1987.0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>403029.453060741</v>
-      </c>
-      <c r="D93" t="n">
-        <v>59801.24543453319</v>
-      </c>
-      <c r="E93" t="n">
+      <c r="B93">
+        <v>1987</v>
+      </c>
+      <c r="C93">
+        <v>403029.45306074101</v>
+      </c>
+      <c r="D93">
+        <v>59801.245434533193</v>
+      </c>
+      <c r="E93">
         <v>0.14837934294970864</v>
       </c>
       <c r="F93" t="s">
@@ -3459,20 +3775,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>101</v>
       </c>
-      <c r="B94" t="n">
-        <v>1990.0</v>
-      </c>
-      <c r="C94" t="n">
-        <v>391504.6996810263</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="B94">
+        <v>1990</v>
+      </c>
+      <c r="C94">
+        <v>391504.69968102628</v>
+      </c>
+      <c r="D94">
         <v>50879.10198319616</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>0.12995783198681726</v>
       </c>
       <c r="F94" t="s">
@@ -3491,20 +3807,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>102</v>
       </c>
-      <c r="B95" t="n">
-        <v>1993.0</v>
-      </c>
-      <c r="C95" t="n">
-        <v>558105.7980405941</v>
-      </c>
-      <c r="D95" t="n">
-        <v>74539.85673049762</v>
-      </c>
-      <c r="E95" t="n">
+      <c r="B95">
+        <v>1993</v>
+      </c>
+      <c r="C95">
+        <v>558105.79804059409</v>
+      </c>
+      <c r="D95">
+        <v>74539.856730497617</v>
+      </c>
+      <c r="E95">
         <v>0.13355864961839353</v>
       </c>
       <c r="F95" t="s">
@@ -3523,20 +3839,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>103</v>
       </c>
-      <c r="B96" t="n">
-        <v>1996.0</v>
-      </c>
-      <c r="C96" t="n">
-        <v>756928.6379072311</v>
-      </c>
-      <c r="D96" t="n">
+      <c r="B96">
+        <v>1996</v>
+      </c>
+      <c r="C96">
+        <v>756928.63790723111</v>
+      </c>
+      <c r="D96">
         <v>98965.4407721475</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>0.13074606484142123</v>
       </c>
       <c r="F96" t="s">
@@ -3555,20 +3871,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>104</v>
       </c>
-      <c r="B97" t="n">
-        <v>1999.0</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="B97">
+        <v>1999</v>
+      </c>
+      <c r="C97">
         <v>558789.4763604739</v>
       </c>
-      <c r="D97" t="n">
-        <v>77649.80955908005</v>
-      </c>
-      <c r="E97" t="n">
+      <c r="D97">
+        <v>77649.809559080051</v>
+      </c>
+      <c r="E97">
         <v>0.13896075864712298</v>
       </c>
       <c r="F97" t="s">
@@ -3587,20 +3903,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>105</v>
       </c>
-      <c r="B98" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="C98" t="n">
+      <c r="B98">
+        <v>2001</v>
+      </c>
+      <c r="C98">
         <v>1047042.5080038306</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>204973.44902324057</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>0.19576420962508875</v>
       </c>
       <c r="F98" t="s">
@@ -3619,20 +3935,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>106</v>
       </c>
-      <c r="B99" t="n">
-        <v>2003.0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>911872.4988041795</v>
-      </c>
-      <c r="D99" t="n">
-        <v>121281.1001519513</v>
-      </c>
-      <c r="E99" t="n">
+      <c r="B99">
+        <v>2003</v>
+      </c>
+      <c r="C99">
+        <v>911872.49880417949</v>
+      </c>
+      <c r="D99">
+        <v>121281.10015195129</v>
+      </c>
+      <c r="E99">
         <v>0.13300225668719928</v>
       </c>
       <c r="F99" t="s">
@@ -3651,20 +3967,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>107</v>
       </c>
-      <c r="B100" t="n">
-        <v>2005.0</v>
-      </c>
-      <c r="C100" t="n">
+      <c r="B100">
+        <v>2005</v>
+      </c>
+      <c r="C100">
         <v>1301252.0186787066</v>
       </c>
-      <c r="D100" t="n">
-        <v>155772.9261898088</v>
-      </c>
-      <c r="E100" t="n">
+      <c r="D100">
+        <v>155772.92618980879</v>
+      </c>
+      <c r="E100">
         <v>0.11971003614502045</v>
       </c>
       <c r="F100" t="s">
@@ -3683,20 +3999,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>108</v>
       </c>
-      <c r="B101" t="n">
-        <v>2007.0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>1284434.105083052</v>
-      </c>
-      <c r="D101" t="n">
+      <c r="B101">
+        <v>2007</v>
+      </c>
+      <c r="C101">
+        <v>1284434.1050830521</v>
+      </c>
+      <c r="D101">
         <v>171295.51321774433</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>0.13336263225949477</v>
       </c>
       <c r="F101" t="s">
@@ -3715,20 +4031,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>109</v>
       </c>
-      <c r="B102" t="n">
-        <v>2009.0</v>
-      </c>
-      <c r="C102" t="n">
-        <v>1264177.732553244</v>
-      </c>
-      <c r="D102" t="n">
-        <v>151203.0867552799</v>
-      </c>
-      <c r="E102" t="n">
+      <c r="B102">
+        <v>2009</v>
+      </c>
+      <c r="C102">
+        <v>1264177.7325532441</v>
+      </c>
+      <c r="D102">
+        <v>151203.08675527989</v>
+      </c>
+      <c r="E102">
         <v>0.11960587729218809</v>
       </c>
       <c r="F102" t="s">
@@ -3747,20 +4063,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>110</v>
       </c>
-      <c r="B103" t="n">
-        <v>2011.0</v>
-      </c>
-      <c r="C103" t="n">
+      <c r="B103">
+        <v>2011</v>
+      </c>
+      <c r="C103">
         <v>1563691.6021962743</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>201083.89027162502</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>0.12859561948736808</v>
       </c>
       <c r="F103" t="s">
@@ -3779,20 +4095,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>111</v>
       </c>
-      <c r="B104" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>2374953.525829056</v>
-      </c>
-      <c r="D104" t="n">
-        <v>340241.2660874449</v>
-      </c>
-      <c r="E104" t="n">
+      <c r="B104">
+        <v>2013</v>
+      </c>
+      <c r="C104">
+        <v>2374953.5258290558</v>
+      </c>
+      <c r="D104">
+        <v>340241.26608744491</v>
+      </c>
+      <c r="E104">
         <v>0.14326228382455294</v>
       </c>
       <c r="F104" t="s">
@@ -3811,20 +4127,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>112</v>
       </c>
-      <c r="B105" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="C105" t="n">
+      <c r="B105">
+        <v>2015</v>
+      </c>
+      <c r="C105">
         <v>2752049.6502134814</v>
       </c>
-      <c r="D105" t="n">
-        <v>355380.2181724642</v>
-      </c>
-      <c r="E105" t="n">
+      <c r="D105">
+        <v>355380.21817246423</v>
+      </c>
+      <c r="E105">
         <v>0.12913292394448506</v>
       </c>
       <c r="F105" t="s">
@@ -3843,20 +4159,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>113</v>
       </c>
-      <c r="B106" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="C106" t="n">
-        <v>3357240.770160477</v>
-      </c>
-      <c r="D106" t="n">
+      <c r="B106">
+        <v>2017</v>
+      </c>
+      <c r="C106">
+        <v>3357240.7701604771</v>
+      </c>
+      <c r="D106">
         <v>455592.44637562206</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>0.13570443038371793</v>
       </c>
       <c r="F106" t="s">
@@ -3875,21 +4191,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>114</v>
       </c>
-      <c r="B107" t="n">
-        <v>1984.0</v>
-      </c>
-      <c r="C107" t="n">
+      <c r="B107">
+        <v>1984</v>
+      </c>
+      <c r="C107">
         <v>220910.51048170237</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>56130.539466759525</v>
       </c>
-      <c r="E107" t="n">
-        <v>0.2540872290067372</v>
+      <c r="E107">
+        <v>0.25408722900673719</v>
       </c>
       <c r="F107" t="s">
         <v>129</v>
@@ -3907,20 +4223,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>115</v>
       </c>
-      <c r="B108" t="n">
-        <v>1987.0</v>
-      </c>
-      <c r="C108" t="n">
+      <c r="B108">
+        <v>1987</v>
+      </c>
+      <c r="C108">
         <v>241438.2484739793</v>
       </c>
-      <c r="D108" t="n">
-        <v>54847.87883763874</v>
-      </c>
-      <c r="E108" t="n">
+      <c r="D108">
+        <v>54847.878837638738</v>
+      </c>
+      <c r="E108">
         <v>0.22717145764727456</v>
       </c>
       <c r="F108" t="s">
@@ -3939,20 +4255,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>116</v>
       </c>
-      <c r="B109" t="n">
-        <v>1990.0</v>
-      </c>
-      <c r="C109" t="n">
+      <c r="B109">
+        <v>1990</v>
+      </c>
+      <c r="C109">
         <v>157295.10810108116</v>
       </c>
-      <c r="D109" t="n">
-        <v>47129.36408427091</v>
-      </c>
-      <c r="E109" t="n">
+      <c r="D109">
+        <v>47129.364084270906</v>
+      </c>
+      <c r="E109">
         <v>0.29962383861286124</v>
       </c>
       <c r="F109" t="s">
@@ -3971,20 +4287,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>117</v>
       </c>
-      <c r="B110" t="n">
-        <v>1993.0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>483482.0580485296</v>
-      </c>
-      <c r="D110" t="n">
+      <c r="B110">
+        <v>1993</v>
+      </c>
+      <c r="C110">
+        <v>483482.05804852961</v>
+      </c>
+      <c r="D110">
         <v>108639.97592897959</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>0.22470322139249857</v>
       </c>
       <c r="F110" t="s">
@@ -4003,20 +4319,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>118</v>
       </c>
-      <c r="B111" t="n">
-        <v>1996.0</v>
-      </c>
-      <c r="C111" t="n">
+      <c r="B111">
+        <v>1996</v>
+      </c>
+      <c r="C111">
         <v>771412.7700741177</v>
       </c>
-      <c r="D111" t="n">
-        <v>203553.8112886799</v>
-      </c>
-      <c r="E111" t="n">
+      <c r="D111">
+        <v>203553.81128867989</v>
+      </c>
+      <c r="E111">
         <v>0.26387145661216155</v>
       </c>
       <c r="F111" t="s">
@@ -4035,21 +4351,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>119</v>
       </c>
-      <c r="B112" t="n">
-        <v>1999.0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>727063.4715445885</v>
-      </c>
-      <c r="D112" t="n">
-        <v>388566.0074915474</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0.534432030625978</v>
+      <c r="B112">
+        <v>1999</v>
+      </c>
+      <c r="C112">
+        <v>727063.47154458845</v>
+      </c>
+      <c r="D112">
+        <v>388566.00749154738</v>
+      </c>
+      <c r="E112">
+        <v>0.53443203062597799</v>
       </c>
       <c r="F112" t="s">
         <v>129</v>
@@ -4067,21 +4383,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>120</v>
       </c>
-      <c r="B113" t="n">
-        <v>2001.0</v>
-      </c>
-      <c r="C113" t="n">
-        <v>673155.0614927592</v>
-      </c>
-      <c r="D113" t="n">
+      <c r="B113">
+        <v>2001</v>
+      </c>
+      <c r="C113">
+        <v>673155.06149275915</v>
+      </c>
+      <c r="D113">
         <v>222003.02456328887</v>
       </c>
-      <c r="E113" t="n">
-        <v>0.3297947787408516</v>
+      <c r="E113">
+        <v>0.32979477874085161</v>
       </c>
       <c r="F113" t="s">
         <v>129</v>
@@ -4099,20 +4415,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>121</v>
       </c>
-      <c r="B114" t="n">
-        <v>2003.0</v>
-      </c>
-      <c r="C114" t="n">
+      <c r="B114">
+        <v>2003</v>
+      </c>
+      <c r="C114">
         <v>457421.5614838581</v>
       </c>
-      <c r="D114" t="n">
-        <v>72014.76235329575</v>
-      </c>
-      <c r="E114" t="n">
+      <c r="D114">
+        <v>72014.762353295751</v>
+      </c>
+      <c r="E114">
         <v>0.157436309122995</v>
       </c>
       <c r="F114" t="s">
@@ -4131,20 +4447,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>122</v>
       </c>
-      <c r="B115" t="n">
-        <v>2005.0</v>
-      </c>
-      <c r="C115" t="n">
-        <v>764901.4061271069</v>
-      </c>
-      <c r="D115" t="n">
+      <c r="B115">
+        <v>2005</v>
+      </c>
+      <c r="C115">
+        <v>764901.40612710686</v>
+      </c>
+      <c r="D115">
         <v>146628.12305767962</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>0.19169545497385818</v>
       </c>
       <c r="F115" t="s">
@@ -4163,20 +4479,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>123</v>
       </c>
-      <c r="B116" t="n">
-        <v>2007.0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>688179.7535127668</v>
-      </c>
-      <c r="D116" t="n">
+      <c r="B116">
+        <v>2007</v>
+      </c>
+      <c r="C116">
+        <v>688179.75351276679</v>
+      </c>
+      <c r="D116">
         <v>114172.16510181692</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>0.16590456856516464</v>
       </c>
       <c r="F116" t="s">
@@ -4195,20 +4511,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>124</v>
       </c>
-      <c r="B117" t="n">
-        <v>2009.0</v>
-      </c>
-      <c r="C117" t="n">
-        <v>649449.1861424028</v>
-      </c>
-      <c r="D117" t="n">
+      <c r="B117">
+        <v>2009</v>
+      </c>
+      <c r="C117">
+        <v>649449.18614240282</v>
+      </c>
+      <c r="D117">
         <v>117760.62859978729</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>0.18132385275476542</v>
       </c>
       <c r="F117" t="s">
@@ -4227,20 +4543,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>125</v>
       </c>
-      <c r="B118" t="n">
-        <v>2011.0</v>
-      </c>
-      <c r="C118" t="n">
-        <v>778669.2520543064</v>
-      </c>
-      <c r="D118" t="n">
+      <c r="B118">
+        <v>2011</v>
+      </c>
+      <c r="C118">
+        <v>778669.25205430645</v>
+      </c>
+      <c r="D118">
         <v>135505.97201564326</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>0.17402250269693803</v>
       </c>
       <c r="F118" t="s">
@@ -4259,20 +4575,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>126</v>
       </c>
-      <c r="B119" t="n">
-        <v>2013.0</v>
-      </c>
-      <c r="C119" t="n">
+      <c r="B119">
+        <v>2013</v>
+      </c>
+      <c r="C119">
         <v>1298443.4559864458</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>213516.032964235</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>0.16443999311623766</v>
       </c>
       <c r="F119" t="s">
@@ -4291,21 +4607,21 @@
         <v>133</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>127</v>
       </c>
-      <c r="B120" t="n">
-        <v>2015.0</v>
-      </c>
-      <c r="C120" t="n">
+      <c r="B120">
+        <v>2015</v>
+      </c>
+      <c r="C120">
         <v>1140406.7270289504</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>176812.03238424874</v>
       </c>
-      <c r="E120" t="n">
-        <v>0.1550429580899519</v>
+      <c r="E120">
+        <v>0.15504295808995189</v>
       </c>
       <c r="F120" t="s">
         <v>129</v>
@@ -4323,20 +4639,20 @@
         <v>133</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>128</v>
       </c>
-      <c r="B121" t="n">
-        <v>2017.0</v>
-      </c>
-      <c r="C121" t="n">
+      <c r="B121">
+        <v>2017</v>
+      </c>
+      <c r="C121">
         <v>1570358.9324587185</v>
       </c>
-      <c r="D121" t="n">
-        <v>350209.6287236388</v>
-      </c>
-      <c r="E121" t="n">
+      <c r="D121">
+        <v>350209.62872363877</v>
+      </c>
+      <c r="E121">
         <v>0.22301247280792924</v>
       </c>
       <c r="F121" t="s">
@@ -4356,6 +4672,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>